--- a/medicine/Mort/Cimetière_général_de_Beauvais/Cimetière_général_de_Beauvais.xlsx
+++ b/medicine/Mort/Cimetière_général_de_Beauvais/Cimetière_général_de_Beauvais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_g%C3%A9n%C3%A9ral_de_Beauvais</t>
+          <t>Cimetière_général_de_Beauvais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le  cimetière général est le cimetière communal le plus important de la ville de Beauvais dans le département de l'Oise en France[1]. Il se trouve rue de Calais[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le  cimetière général est le cimetière communal le plus important de la ville de Beauvais dans le département de l'Oise en France. Il se trouve rue de Calais.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_g%C3%A9n%C3%A9ral_de_Beauvais</t>
+          <t>Cimetière_général_de_Beauvais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière général de Beauvais a ouvert en 1791 à l'emplacement de la propriété de l'ancien couvent des Capucins fondé en 1603 et dispersé par la Révolution[3]. Il offre une perspective sur la cathédrale de Beauvais au loin. Ce cimetière très dense n'est absolument pas végétalisé, sauf quelques haies taillées dans la partie contemporaine. Il présente beaucoup de sépultures intéressantes d'un point de vue patrimonial dans sa partie ancienne, dont certaines comme le lit mortuaire de Mme Koch sont surprenantes. Les ornements, bas-reliefs, bustes (celui par exemple du Dr Piedecoq, du Dr Gérard, du Dr Le Vaillant du Buisson, d'Antonin Lefort, famille Lesage-Gourdin avec pleureuse, etc.) et statues y sont nombreux et les chapelles familiales sont pour un grand nombre d'entre elles imposantes[3]. Une haute croix de calvaire domine la place centrale où sont inhumés les ecclésiastiques de Beauvais. La statue du souvenir orne le monument aux morts. Le cimetière possède une grande chapelle de briques de style néoroman et plusieurs parcelles militaires.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière général de Beauvais a ouvert en 1791 à l'emplacement de la propriété de l'ancien couvent des Capucins fondé en 1603 et dispersé par la Révolution. Il offre une perspective sur la cathédrale de Beauvais au loin. Ce cimetière très dense n'est absolument pas végétalisé, sauf quelques haies taillées dans la partie contemporaine. Il présente beaucoup de sépultures intéressantes d'un point de vue patrimonial dans sa partie ancienne, dont certaines comme le lit mortuaire de Mme Koch sont surprenantes. Les ornements, bas-reliefs, bustes (celui par exemple du Dr Piedecoq, du Dr Gérard, du Dr Le Vaillant du Buisson, d'Antonin Lefort, famille Lesage-Gourdin avec pleureuse, etc.) et statues y sont nombreux et les chapelles familiales sont pour un grand nombre d'entre elles imposantes. Une haute croix de calvaire domine la place centrale où sont inhumés les ecclésiastiques de Beauvais. La statue du souvenir orne le monument aux morts. Le cimetière possède une grande chapelle de briques de style néoroman et plusieurs parcelles militaires.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_g%C3%A9n%C3%A9ral_de_Beauvais</t>
+          <t>Cimetière_général_de_Beauvais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Guy Amiot d'Inville (1918-2002), officier de la Seconde Guerre mondiale
 Général Charles-Henri de Belgrand de Vaubois (1748-1839), militaire de la Grande Armée, sénateur, comte d'Empire, puis pair de France
